--- a/prisma/pokemon-database/resistance_pokemon.xlsx
+++ b/prisma/pokemon-database/resistance_pokemon.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Type</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -455,14 +455,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
